--- a/Departamental/Calif_Departamental_Revision_JesusCapistran.xlsx
+++ b/Departamental/Calif_Departamental_Revision_JesusCapistran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reina-buap/Documents/Github/fisica_electronica_2023/Departamental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065AF0DA-FAAC-0149-B702-C1B4FF8DFF73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0729B50F-F305-8848-A74E-EE9E3460454A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{91BBDF17-1732-1E4C-A2F9-718F4CD489F1}"/>
   </bookViews>
@@ -156,10 +156,10 @@
     <t xml:space="preserve">Grupo: Dra. Yolanda Elinor (Lunes 13-15 hrs) </t>
   </si>
   <si>
-    <t xml:space="preserve">Aciertos Examen (1-5) </t>
-  </si>
-  <si>
-    <t>Calificación Final</t>
+    <t>Calificación Examen Departamental</t>
+  </si>
+  <si>
+    <t>1 pregunta = 2 puntos</t>
   </si>
 </sst>
 </file>
@@ -515,17 +515,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1E2BAF-6752-1C4E-A59A-A8BF5200F03B}">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,6 +546,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
@@ -563,9 +570,6 @@
       <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -584,12 +588,9 @@
         <v>202132083</v>
       </c>
       <c r="F8">
-        <v>1.6</v>
-      </c>
-      <c r="G8" s="1">
-        <f>(F8/MAX(F$8:F$18))*10</f>
-        <v>4.5714285714285721</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -608,12 +609,9 @@
         <v>202141803</v>
       </c>
       <c r="F9">
-        <v>2.1</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ref="G9:G18" si="0">(F9/MAX(F$8:F$18))*10</f>
-        <v>6</v>
-      </c>
+        <v>4.3</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -632,12 +630,9 @@
         <v>202145777</v>
       </c>
       <c r="F10">
-        <v>2.4</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8571428571428577</v>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -656,12 +651,9 @@
         <v>202133253</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>5.7142857142857135</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -680,12 +672,9 @@
         <v>202142820</v>
       </c>
       <c r="F12">
-        <v>2.1</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -704,12 +693,9 @@
         <v>202139689</v>
       </c>
       <c r="F13">
-        <v>1.65</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7142857142857144</v>
-      </c>
+        <v>3.3</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -728,12 +714,9 @@
         <v>202131305</v>
       </c>
       <c r="F14">
-        <v>2.15</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1428571428571423</v>
-      </c>
+        <v>4.3</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -752,12 +735,9 @@
         <v>202129245</v>
       </c>
       <c r="F15">
-        <v>3.5</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -776,12 +756,9 @@
         <v>202130388</v>
       </c>
       <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428568</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -800,12 +777,9 @@
         <v>202156426</v>
       </c>
       <c r="F17">
-        <v>1.4</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9999999999999996</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -824,12 +798,39 @@
         <v>202154131</v>
       </c>
       <c r="F18">
-        <v>2.95</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>8.4285714285714288</v>
-      </c>
+        <v>5.9</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
